--- a/1-零件清单/A型电机BOM（批量阶段）.xlsx
+++ b/1-零件清单/A型电机BOM（批量阶段）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="锐特" sheetId="1" r:id="rId1"/>
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="55">
-  <si>
-    <t>A型电机批量生产BOM表</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="73">
+  <si>
+    <t>A型电机批量生产BOM表（锐特）</t>
   </si>
   <si>
     <t>序号</t>
@@ -26,7 +26,7 @@
     <t>名称</t>
   </si>
   <si>
-    <t>材料</t>
+    <t>材料/型号</t>
   </si>
   <si>
     <t>数量</t>
@@ -41,7 +41,7 @@
     <t>合计</t>
   </si>
   <si>
-    <t>模具费用</t>
+    <t>模具费用/一次性投入</t>
   </si>
   <si>
     <t>备注</t>
@@ -50,7 +50,7 @@
     <t>风罩</t>
   </si>
   <si>
-    <t>PA66+30%G</t>
+    <t>PPA+30%GF</t>
   </si>
   <si>
     <t>PCS</t>
@@ -71,7 +71,7 @@
     <t>铝</t>
   </si>
   <si>
-    <t>M3</t>
+    <t>M3，厚度4</t>
   </si>
   <si>
     <t>圆垫片</t>
@@ -80,6 +80,9 @@
     <t>T型垫片</t>
   </si>
   <si>
+    <t>3mm高</t>
+  </si>
+  <si>
     <t>前端盖</t>
   </si>
   <si>
@@ -92,7 +95,7 @@
     <t>NMB:R830ZZ</t>
   </si>
   <si>
-    <t>与厂家协商降价</t>
+    <t>备选：南通山口、镇海银球</t>
   </si>
   <si>
     <t>定子铁芯</t>
@@ -104,6 +107,9 @@
     <t>上骨架</t>
   </si>
   <si>
+    <t>PA66+30%GF</t>
+  </si>
+  <si>
     <t>2g，材料+人工=30*2元/kg</t>
   </si>
   <si>
@@ -122,7 +128,7 @@
     <t>g</t>
   </si>
   <si>
-    <t>φ0.72</t>
+    <t>φ0.65</t>
   </si>
   <si>
     <t>轴</t>
@@ -146,6 +152,9 @@
     <t>后端盖</t>
   </si>
   <si>
+    <t>PPS+30%GF</t>
+  </si>
+  <si>
     <t>接线端子</t>
   </si>
   <si>
@@ -164,13 +173,107 @@
     <t>M3*20</t>
   </si>
   <si>
+    <t>泰克示波器</t>
+  </si>
+  <si>
+    <t>TBS1202C</t>
+  </si>
+  <si>
+    <t>SET</t>
+  </si>
+  <si>
+    <t>迈斯泰克直流电源</t>
+  </si>
+  <si>
+    <t>DP6020</t>
+  </si>
+  <si>
+    <t>威博真空度测量仪</t>
+  </si>
+  <si>
+    <t>WB-2C</t>
+  </si>
+  <si>
+    <t>温度测量仪</t>
+  </si>
+  <si>
+    <t>8路/热电偶</t>
+  </si>
+  <si>
+    <t>叶轮动平衡机</t>
+  </si>
+  <si>
+    <t>整机动平衡机</t>
+  </si>
+  <si>
+    <t>4工位自动绕线机</t>
+  </si>
+  <si>
+    <t>自动点胶机</t>
+  </si>
+  <si>
     <t>合计：</t>
   </si>
   <si>
     <t>备注：</t>
   </si>
   <si>
-    <t>黄色表示核心零部件，绿色表示塑料件</t>
+    <r>
+      <t>黄色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>表示核心零部件，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>绿色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>表示塑料件，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4" tint="0.4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>蓝色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>表示仪器设备</t>
+    </r>
+  </si>
+  <si>
+    <t>A型电机批量生产BOM表（冉工参考）</t>
   </si>
   <si>
     <t>后盖</t>
@@ -180,6 +283,68 @@
   </si>
   <si>
     <t>包装</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>黄色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>表示核心零部件，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>绿色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>表示塑料件，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="0.4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>蓝色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>表示仪器设备</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -187,12 +352,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,9 +382,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFF00"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFF00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -231,7 +410,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,7 +418,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,8 +431,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,6 +441,30 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,30 +480,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,10 +517,17 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -352,15 +539,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="0.4"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF92D050"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4" tint="0.4"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -381,19 +595,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,157 +661,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,17 +905,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -718,6 +934,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -728,7 +953,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -747,26 +987,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -775,10 +995,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -787,16 +1007,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -808,116 +1028,116 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -945,7 +1165,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -959,6 +1179,60 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1279,21 +1553,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="18.625" customWidth="1"/>
-    <col min="3" max="3" width="27.125" customWidth="1"/>
-    <col min="5" max="5" width="10.375" customWidth="1"/>
-    <col min="6" max="6" width="10.625" customWidth="1"/>
-    <col min="7" max="7" width="12.125" customWidth="1"/>
-    <col min="8" max="8" width="12.5" customWidth="1"/>
-    <col min="9" max="9" width="36.125" customWidth="1"/>
+    <col min="2" max="2" width="25.125" customWidth="1"/>
+    <col min="3" max="3" width="30.75" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
+    <col min="6" max="6" width="11.375" customWidth="1"/>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
+    <col min="8" max="8" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="39.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="38" customHeight="1" spans="1:9">
@@ -1309,7 +1583,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" ht="22" customHeight="1" spans="1:9">
+    <row r="2" ht="31" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1338,422 +1612,628 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="3" ht="14.25" spans="1:9">
+      <c r="A3" s="15">
+        <v>1</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3" t="s">
+      <c r="D3" s="15">
+        <v>1</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="4">
+    <row r="4" ht="14.25" spans="1:9">
+      <c r="A4" s="17">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="C4" s="19"/>
+      <c r="D4" s="17">
+        <v>1</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="17">
         <v>2.4</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="17">
         <f>F4*D4</f>
         <v>2.4</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="17">
         <v>0</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="6">
+    <row r="5" ht="14.25" spans="1:9">
+      <c r="A5" s="20">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="6">
-        <v>1</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6" t="s">
+      <c r="D5" s="20">
+        <v>1</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="6">
+    <row r="6" ht="14.25" spans="1:9">
+      <c r="A6" s="20">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="6">
+      <c r="D6" s="20">
+        <v>1</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+    </row>
+    <row r="7" ht="14.25" spans="1:9">
+      <c r="A7" s="20">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="6">
-        <v>1</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="3">
+      <c r="D7" s="20">
+        <v>1</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:9">
+      <c r="A8" s="15">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="4">
+      <c r="D8" s="15">
+        <v>1</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" spans="1:9">
+      <c r="A9" s="17">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="4">
+      <c r="C9" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="17">
         <v>2</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="4">
+      <c r="E9" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="17">
         <v>3</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="17">
         <f>F9*D9</f>
         <v>6</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="17">
         <v>0</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="4">
+      <c r="I9" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" spans="1:9">
+      <c r="A10" s="17">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="3">
+      <c r="C10" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="17">
+        <v>1</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17">
+        <v>70000</v>
+      </c>
+      <c r="I10" s="17"/>
+    </row>
+    <row r="11" ht="14.25" spans="1:9">
+      <c r="A11" s="15">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="15">
+        <v>1</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="1:9">
+      <c r="A12" s="15">
+        <v>10</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="15">
+        <v>1</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" spans="1:9">
+      <c r="A13" s="20">
         <v>11</v>
       </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="6">
-        <v>11</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="6">
+      <c r="B13" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="20">
         <v>15</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="4">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="E13" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="4">
-        <v>1</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="4">
+    </row>
+    <row r="14" ht="14.25" spans="1:9">
+      <c r="A14" s="17">
+        <v>12</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="17">
+        <v>1</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="17">
         <v>2.2</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="17">
         <f>F14*D14</f>
         <v>2.2</v>
       </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="4">
+      <c r="H14" s="17"/>
+      <c r="I14" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="1:9">
+      <c r="A15" s="17">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="4">
+      <c r="B15" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="17">
+        <v>1</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="17">
         <v>2</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="17">
         <f>F15*D15</f>
         <v>2</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="3">
+      <c r="H15" s="17"/>
+      <c r="I15" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="1:9">
+      <c r="A16" s="15">
         <v>14</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3" t="s">
+      <c r="B16" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="15">
+        <v>1</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="6">
+    <row r="17" ht="14.25" spans="1:9">
+      <c r="A17" s="20">
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="6">
+      <c r="B17" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="20">
         <v>3</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="6">
+      <c r="E17" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="1:9">
+      <c r="A18" s="20">
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="6">
+      <c r="B18" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="20">
         <v>3</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" s="13">
+      <c r="E18" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" spans="1:9">
+      <c r="A19" s="22">
+        <v>17</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="22">
+        <v>1</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="22">
+        <v>6799</v>
+      </c>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22">
+        <f t="shared" ref="H19:H25" si="0">D19*F19</f>
+        <v>6799</v>
+      </c>
+      <c r="I19" s="22"/>
+    </row>
+    <row r="20" ht="14.25" spans="1:9">
+      <c r="A20" s="22">
+        <v>18</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="22">
+        <v>1</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="22">
+        <v>1398</v>
+      </c>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22">
+        <f t="shared" si="0"/>
+        <v>1398</v>
+      </c>
+      <c r="I20" s="22"/>
+    </row>
+    <row r="21" ht="14.25" spans="1:9">
+      <c r="A21" s="22">
+        <v>19</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="22">
+        <v>1</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="22">
+        <v>1860</v>
+      </c>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22">
+        <f t="shared" si="0"/>
+        <v>1860</v>
+      </c>
+      <c r="I21" s="22"/>
+    </row>
+    <row r="22" ht="14.25" spans="1:9">
+      <c r="A22" s="22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="22">
+        <v>1750</v>
+      </c>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22">
+        <f t="shared" si="0"/>
+        <v>1750</v>
+      </c>
+      <c r="I22" s="22"/>
+    </row>
+    <row r="23" ht="14.25" spans="1:9">
+      <c r="A23" s="22">
+        <v>21</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22">
+        <v>1</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="22">
+        <v>60000</v>
+      </c>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+      <c r="I23" s="22"/>
+    </row>
+    <row r="24" ht="14.25" spans="1:9">
+      <c r="A24" s="22">
+        <v>22</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22">
+        <v>1</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="22">
+        <v>60000</v>
+      </c>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+      <c r="I24" s="22"/>
+    </row>
+    <row r="25" ht="14.25" spans="1:9">
+      <c r="A25" s="22">
+        <v>23</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22">
+        <v>1</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="22">
+        <v>120000</v>
+      </c>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22">
+        <f t="shared" si="0"/>
+        <v>120000</v>
+      </c>
+      <c r="I25" s="22"/>
+    </row>
+    <row r="26" ht="14.25" spans="1:9">
+      <c r="A26" s="22">
+        <v>24</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22">
+        <v>1</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+    </row>
+    <row r="27" ht="14.25" spans="1:9">
+      <c r="A27" s="24"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G27" s="28">
         <f>SUM(G3:G18)</f>
         <v>12.6</v>
       </c>
-      <c r="H19" s="13">
-        <f>SUM(H3:H18)</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="13"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" t="s">
-        <v>51</v>
-      </c>
+      <c r="H27" s="28">
+        <f>SUM(H3:H24)</f>
+        <v>201807</v>
+      </c>
+      <c r="I27" s="28"/>
+    </row>
+    <row r="28" ht="14.25" spans="1:9">
+      <c r="A28" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="B28:C28"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1763,26 +2243,26 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
     <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="3" max="3" width="26.25" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="11.75" customWidth="1"/>
+    <col min="8" max="8" width="26.625" customWidth="1"/>
     <col min="9" max="9" width="34.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="40" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1842,7 +2322,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="3">
-        <f>F3*D3</f>
+        <f t="shared" ref="G3:G20" si="0">F3*D3</f>
         <v>2</v>
       </c>
       <c r="H3" s="3">
@@ -1868,7 +2348,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="4">
-        <f>F4*D4</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H4" s="4">
@@ -1896,7 +2376,7 @@
         <v>0.1</v>
       </c>
       <c r="G5" s="6">
-        <f>F5*D5</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="H5" s="6"/>
@@ -1922,7 +2402,7 @@
         <v>0.08</v>
       </c>
       <c r="G6" s="6">
-        <f>F6*D6</f>
+        <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
       <c r="H6" s="6"/>
@@ -1948,7 +2428,7 @@
         <v>0.5</v>
       </c>
       <c r="G7" s="6">
-        <f>F7*D7</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="H7" s="6"/>
@@ -1959,7 +2439,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>11</v>
@@ -1974,7 +2454,7 @@
         <v>4.5</v>
       </c>
       <c r="G8" s="3">
-        <f>F8*D8</f>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
       <c r="H8" s="3">
@@ -1987,10 +2467,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
@@ -2002,12 +2482,10 @@
         <v>4</v>
       </c>
       <c r="G9" s="4">
-        <f>F9*D9</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H9" s="4">
-        <v>0</v>
-      </c>
+      <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9">
@@ -2015,10 +2493,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -2030,11 +2508,11 @@
         <v>2.5</v>
       </c>
       <c r="G10" s="4">
-        <f>F10*D10</f>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="H10" s="4">
-        <v>8000</v>
+        <v>70000</v>
       </c>
       <c r="I10" s="4"/>
     </row>
@@ -2043,10 +2521,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
@@ -2058,7 +2536,7 @@
         <v>0.9</v>
       </c>
       <c r="G11" s="3">
-        <f>F11*D11</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="H11" s="7">
@@ -2071,10 +2549,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
@@ -2086,7 +2564,7 @@
         <v>0.9</v>
       </c>
       <c r="G12" s="3">
-        <f>F12*D12</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="H12" s="8"/>
@@ -2097,22 +2575,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D13" s="6">
         <v>15</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F13" s="6">
         <v>0.1</v>
       </c>
       <c r="G13" s="6">
-        <f>F13*D13</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="H13" s="6"/>
@@ -2123,10 +2601,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -2138,7 +2616,7 @@
         <v>2</v>
       </c>
       <c r="G14" s="4">
-        <f>F14*D14</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H14" s="4"/>
@@ -2149,10 +2627,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -2164,7 +2642,7 @@
         <v>2.5</v>
       </c>
       <c r="G15" s="4">
-        <f>F15*D15</f>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="H15" s="4"/>
@@ -2175,10 +2653,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
@@ -2190,7 +2668,7 @@
         <v>2.5</v>
       </c>
       <c r="G16" s="3">
-        <f>F16*D16</f>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="H16" s="3">
@@ -2203,11 +2681,9 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>11</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="C17" s="3"/>
       <c r="D17" s="3">
         <v>1</v>
       </c>
@@ -2218,7 +2694,7 @@
         <v>1.5</v>
       </c>
       <c r="G17" s="3">
-        <f>F17*D17</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="H17" s="3">
@@ -2227,14 +2703,14 @@
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="9">
+      <c r="A18" s="6">
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D18" s="6">
         <v>3</v>
@@ -2245,8 +2721,8 @@
       <c r="F18" s="6">
         <v>0.5</v>
       </c>
-      <c r="G18" s="9">
-        <f>F18*D18</f>
+      <c r="G18" s="6">
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="H18" s="6">
@@ -2255,11 +2731,11 @@
       <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="9">
+      <c r="A19" s="6">
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6">
@@ -2268,22 +2744,17 @@
       <c r="E19" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="6">
-        <v>20</v>
-      </c>
-      <c r="G19" s="9">
-        <f>F19*D19</f>
-        <v>20</v>
-      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="9">
+      <c r="A20" s="6">
         <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6">
@@ -2295,45 +2766,240 @@
       <c r="F20" s="6">
         <v>0.5</v>
       </c>
-      <c r="G20" s="9">
-        <f>F20*D20</f>
+      <c r="G20" s="6">
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G21" s="13">
+      <c r="A21" s="9">
+        <v>19</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="9">
+        <v>1</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="9">
+        <v>6799</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9">
+        <f t="shared" ref="H21:H27" si="1">D21*F21</f>
+        <v>6799</v>
+      </c>
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="9">
+        <v>20</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="9">
+        <v>1</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="9">
+        <v>1398</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9">
+        <f t="shared" si="1"/>
+        <v>1398</v>
+      </c>
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="9">
+        <v>21</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="9">
+        <v>1</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="9">
+        <v>1860</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9">
+        <f t="shared" si="1"/>
+        <v>1860</v>
+      </c>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="9">
+        <v>22</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="9">
+        <v>1</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="9">
+        <v>1750</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9">
+        <f t="shared" si="1"/>
+        <v>1750</v>
+      </c>
+      <c r="I24" s="9"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="9">
+        <v>23</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9">
+        <v>1</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="9">
+        <v>60000</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9">
+        <f t="shared" si="1"/>
+        <v>60000</v>
+      </c>
+      <c r="I25" s="9"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="9">
+        <v>24</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9">
+        <v>1</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="9">
+        <v>60000</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9">
+        <f t="shared" si="1"/>
+        <v>60000</v>
+      </c>
+      <c r="I26" s="9"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="9">
+        <v>25</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9">
+        <v>1</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="9">
+        <v>120000</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9">
+        <f t="shared" si="1"/>
+        <v>120000</v>
+      </c>
+      <c r="I27" s="9"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="9">
+        <v>26</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9">
+        <v>1</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="10"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G29" s="13">
         <f>SUM(G3:G20)-G17</f>
-        <v>51.98</v>
-      </c>
-      <c r="H21" s="13">
-        <f>SUM(H3:H20)</f>
-        <v>75000</v>
-      </c>
-      <c r="I21" s="13"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" t="s">
-        <v>51</v>
+        <v>31.98</v>
+      </c>
+      <c r="H29" s="13">
+        <f>SUM(H3:H27)</f>
+        <v>388807</v>
+      </c>
+      <c r="I29" s="13"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="B30:C30"/>
     <mergeCell ref="H11:H12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/1-零件清单/A型电机BOM（批量阶段）.xlsx
+++ b/1-零件清单/A型电机BOM（批量阶段）.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="73">
   <si>
     <t>A型电机批量生产BOM表（锐特）</t>
   </si>
@@ -80,7 +80,7 @@
     <t>T型垫片</t>
   </si>
   <si>
-    <t>3mm高</t>
+    <t>3mm高，数控车床</t>
   </si>
   <si>
     <t>前端盖</t>
@@ -158,10 +158,7 @@
     <t>接线端子</t>
   </si>
   <si>
-    <t>黄铜</t>
-  </si>
-  <si>
-    <t>紫铜太软</t>
+    <t>镀锡黄铜</t>
   </si>
   <si>
     <t>自攻螺丝</t>
@@ -219,6 +216,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>黄色</t>
     </r>
     <r>
@@ -227,7 +230,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>表示核心零部件，</t>
     </r>
@@ -237,7 +239,6 @@
         <color rgb="FF92D050"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>绿色</t>
     </r>
@@ -247,7 +248,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>表示塑料件，</t>
     </r>
@@ -257,7 +257,6 @@
         <color theme="4" tint="0.4"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>蓝色</t>
     </r>
@@ -267,7 +266,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>表示仪器设备</t>
     </r>
@@ -277,6 +275,9 @@
   </si>
   <si>
     <t>后盖</t>
+  </si>
+  <si>
+    <t>黄铜</t>
   </si>
   <si>
     <t>驱动器</t>
@@ -291,7 +292,6 @@
         <color rgb="FFFFFF00"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>黄色</t>
     </r>
@@ -301,7 +301,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>表示核心零部件，</t>
     </r>
@@ -311,7 +310,6 @@
         <color rgb="FF92D050"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>绿色</t>
     </r>
@@ -321,7 +319,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>表示塑料件，</t>
     </r>
@@ -331,7 +328,6 @@
         <color theme="4" tint="0.4"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>蓝色</t>
     </r>
@@ -341,7 +337,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>表示仪器设备</t>
     </r>
@@ -357,7 +352,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,6 +397,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -410,7 +427,100 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -425,153 +535,58 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color rgb="FFFFFF00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF92D050"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="4" tint="0.4"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFF00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF92D050"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="4" tint="0.4"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="36">
@@ -601,13 +616,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,19 +724,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,102 +778,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -751,37 +796,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -890,6 +905,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -901,17 +931,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -943,15 +962,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -973,29 +983,34 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -1007,137 +1022,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1186,30 +1201,18 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1222,16 +1225,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1286,7 +1283,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1556,13 +1553,13 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.90833333333333" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="25.125" customWidth="1"/>
-    <col min="3" max="3" width="30.75" customWidth="1"/>
+    <col min="3" max="3" width="35.25" customWidth="1"/>
     <col min="5" max="5" width="10.75" customWidth="1"/>
     <col min="6" max="6" width="11.375" customWidth="1"/>
     <col min="7" max="7" width="12.75" customWidth="1"/>
@@ -1616,117 +1613,131 @@
       <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="15">
         <v>1</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:9">
-      <c r="A4" s="17">
+      <c r="A4" s="16">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="17">
-        <v>1</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="17">
+      <c r="C4" s="17"/>
+      <c r="D4" s="16">
+        <v>1</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="16">
         <v>2.4</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="16">
         <f>F4*D4</f>
         <v>2.4</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="16">
         <v>0</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:9">
-      <c r="A5" s="20">
+      <c r="A5" s="18">
         <v>3</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="20">
-        <v>1</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="21" t="s">
+      <c r="D5" s="18">
+        <v>1</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="18">
+        <v>0.08</v>
+      </c>
+      <c r="G5" s="18">
+        <f>F5*D5</f>
+        <v>0.08</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:9">
-      <c r="A6" s="20">
+      <c r="A6" s="18">
         <v>4</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="20">
-        <v>1</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
+      <c r="D6" s="18">
+        <v>1</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18">
+        <v>2000</v>
+      </c>
+      <c r="I6" s="18"/>
     </row>
     <row r="7" ht="14.25" spans="1:9">
-      <c r="A7" s="20">
+      <c r="A7" s="18">
         <v>5</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="20">
-        <v>1</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20" t="s">
+      <c r="D7" s="18">
+        <v>1</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="G7" s="18">
+        <f>F7*D7</f>
+        <v>0.26</v>
+      </c>
+      <c r="H7" s="18">
+        <v>0</v>
+      </c>
+      <c r="I7" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1734,98 +1745,98 @@
       <c r="A8" s="15">
         <v>6</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="15">
         <v>1</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="15" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:9">
-      <c r="A9" s="17">
+      <c r="A9" s="16">
         <v>7</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="16">
         <v>2</v>
       </c>
-      <c r="E9" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="17">
+      <c r="E9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="16">
         <v>3</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="16">
         <f>F9*D9</f>
         <v>6</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="16">
         <v>0</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="16" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:9">
-      <c r="A10" s="17">
+      <c r="A10" s="16">
         <v>8</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="17">
-        <v>1</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17">
+      <c r="D10" s="16">
+        <v>1</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16">
         <v>70000</v>
       </c>
-      <c r="I10" s="17"/>
+      <c r="I10" s="16"/>
     </row>
     <row r="11" ht="14.25" spans="1:9">
       <c r="A11" s="15">
         <v>9</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>30</v>
       </c>
       <c r="D11" s="15">
         <v>1</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1833,101 +1844,101 @@
       <c r="A12" s="15">
         <v>10</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="15">
         <v>1</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="15" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
-      <c r="I12" s="16" t="s">
+      <c r="I12" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:9">
-      <c r="A13" s="20">
+      <c r="A13" s="18">
         <v>11</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="18">
         <v>15</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="21" t="s">
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:9">
-      <c r="A14" s="17">
-        <v>12</v>
-      </c>
-      <c r="B14" s="18" t="s">
+      <c r="A14" s="16">
+        <v>12</v>
+      </c>
+      <c r="B14" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="17">
-        <v>1</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="17">
+      <c r="D14" s="16">
+        <v>1</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="16">
         <v>2.2</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="16">
         <f>F14*D14</f>
         <v>2.2</v>
       </c>
-      <c r="H14" s="17"/>
-      <c r="I14" s="18" t="s">
+      <c r="H14" s="16"/>
+      <c r="I14" s="16" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:9">
-      <c r="A15" s="17">
+      <c r="A15" s="16">
         <v>13</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="17">
-        <v>1</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="17">
+      <c r="D15" s="16">
+        <v>1</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="16">
         <v>2</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="16">
         <f>F15*D15</f>
         <v>2</v>
       </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="18" t="s">
+      <c r="H15" s="16"/>
+      <c r="I15" s="16" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1935,299 +1946,297 @@
       <c r="A16" s="15">
         <v>14</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="15" t="s">
         <v>45</v>
       </c>
       <c r="D16" s="15">
         <v>1</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="15" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
-      <c r="I16" s="16" t="s">
+      <c r="I16" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:9">
-      <c r="A17" s="20">
+      <c r="A17" s="18">
         <v>15</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="18">
         <v>3</v>
       </c>
-      <c r="E17" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="21" t="s">
+      <c r="E17" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+    </row>
+    <row r="18" ht="14.25" spans="1:9">
+      <c r="A18" s="18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="18" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" ht="14.25" spans="1:9">
-      <c r="A18" s="20">
-        <v>16</v>
-      </c>
-      <c r="B18" s="21" t="s">
+      <c r="C18" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="D18" s="18">
+        <v>3</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="20">
-        <v>3</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="21" t="s">
+    </row>
+    <row r="19" ht="14.25" spans="1:9">
+      <c r="A19" s="19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="19" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="19" ht="14.25" spans="1:9">
-      <c r="A19" s="22">
-        <v>17</v>
-      </c>
-      <c r="B19" s="23" t="s">
+      <c r="C19" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="D19" s="19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="22">
-        <v>1</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="22">
+      <c r="F19" s="19">
         <v>6799</v>
       </c>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22">
+      <c r="G19" s="19"/>
+      <c r="H19" s="19">
         <f t="shared" ref="H19:H25" si="0">D19*F19</f>
         <v>6799</v>
       </c>
-      <c r="I19" s="22"/>
+      <c r="I19" s="19"/>
     </row>
     <row r="20" ht="14.25" spans="1:9">
-      <c r="A20" s="22">
+      <c r="A20" s="19">
         <v>18</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="22">
-        <v>1</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" s="22">
+      <c r="D20" s="19">
+        <v>1</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="19">
         <v>1398</v>
       </c>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22">
+      <c r="G20" s="19"/>
+      <c r="H20" s="19">
         <f t="shared" si="0"/>
         <v>1398</v>
       </c>
-      <c r="I20" s="22"/>
+      <c r="I20" s="19"/>
     </row>
     <row r="21" ht="14.25" spans="1:9">
-      <c r="A21" s="22">
+      <c r="A21" s="19">
         <v>19</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="22">
-        <v>1</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="22">
+      <c r="D21" s="19">
+        <v>1</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="19">
         <v>1860</v>
       </c>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22">
+      <c r="G21" s="19"/>
+      <c r="H21" s="19">
         <f t="shared" si="0"/>
         <v>1860</v>
       </c>
-      <c r="I21" s="22"/>
+      <c r="I21" s="19"/>
     </row>
     <row r="22" ht="14.25" spans="1:9">
-      <c r="A22" s="22">
+      <c r="A22" s="19">
         <v>20</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="22">
-        <v>1</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" s="22">
+      <c r="D22" s="19">
+        <v>1</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="19">
         <v>1750</v>
       </c>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22">
+      <c r="G22" s="19"/>
+      <c r="H22" s="19">
         <f t="shared" si="0"/>
         <v>1750</v>
       </c>
-      <c r="I22" s="22"/>
+      <c r="I22" s="19"/>
     </row>
     <row r="23" ht="14.25" spans="1:9">
-      <c r="A23" s="22">
+      <c r="A23" s="19">
         <v>21</v>
       </c>
-      <c r="B23" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22">
-        <v>1</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="22">
+      <c r="B23" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19">
+        <v>1</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="19">
         <v>60000</v>
       </c>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22">
+      <c r="G23" s="19"/>
+      <c r="H23" s="19">
         <f t="shared" si="0"/>
         <v>60000</v>
       </c>
-      <c r="I23" s="22"/>
+      <c r="I23" s="19"/>
     </row>
     <row r="24" ht="14.25" spans="1:9">
-      <c r="A24" s="22">
+      <c r="A24" s="19">
         <v>22</v>
       </c>
-      <c r="B24" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22">
-        <v>1</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" s="22">
+      <c r="B24" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19">
+        <v>1</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="19">
         <v>60000</v>
       </c>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22">
+      <c r="G24" s="19"/>
+      <c r="H24" s="19">
         <f t="shared" si="0"/>
         <v>60000</v>
       </c>
-      <c r="I24" s="22"/>
+      <c r="I24" s="19"/>
     </row>
     <row r="25" ht="14.25" spans="1:9">
-      <c r="A25" s="22">
+      <c r="A25" s="19">
         <v>23</v>
       </c>
-      <c r="B25" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22">
-        <v>1</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" s="22">
+      <c r="B25" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19">
+        <v>1</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="19">
         <v>120000</v>
       </c>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22">
+      <c r="G25" s="19"/>
+      <c r="H25" s="19">
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
-      <c r="I25" s="22"/>
+      <c r="I25" s="19"/>
     </row>
     <row r="26" ht="14.25" spans="1:9">
-      <c r="A26" s="22">
+      <c r="A26" s="19">
         <v>24</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19">
+        <v>1</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+    </row>
+    <row r="27" ht="14.25" spans="1:9">
+      <c r="A27" s="20"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22">
-        <v>1</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-    </row>
-    <row r="27" ht="14.25" spans="1:9">
-      <c r="A27" s="24"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="27" t="s">
+      <c r="G27" s="23">
+        <f>SUM(G3:G18)</f>
+        <v>12.94</v>
+      </c>
+      <c r="H27" s="23">
+        <f>SUM(H3:H24)</f>
+        <v>203807</v>
+      </c>
+      <c r="I27" s="23"/>
+    </row>
+    <row r="28" ht="14.25" spans="1:9">
+      <c r="A28" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="G27" s="28">
-        <f>SUM(G3:G18)</f>
-        <v>12.6</v>
-      </c>
-      <c r="H27" s="28">
-        <f>SUM(H3:H24)</f>
-        <v>201807</v>
-      </c>
-      <c r="I27" s="28"/>
-    </row>
-    <row r="28" ht="14.25" spans="1:9">
-      <c r="A28" s="29" t="s">
+      <c r="B28" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2249,10 +2258,10 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.90833333333333" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
-    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="25.5083333333333" customWidth="1"/>
     <col min="3" max="3" width="26.25" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
@@ -2262,7 +2271,7 @@
   <sheetData>
     <row r="1" ht="40" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2681,7 +2690,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3">
@@ -2710,7 +2719,7 @@
         <v>46</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="D18" s="6">
         <v>3</v>
@@ -2778,16 +2787,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="D21" s="9">
+        <v>1</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>53</v>
-      </c>
-      <c r="D21" s="9">
-        <v>1</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>54</v>
       </c>
       <c r="F21" s="9">
         <v>6799</v>
@@ -2804,16 +2813,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>56</v>
-      </c>
       <c r="D22" s="9">
         <v>1</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F22" s="9">
         <v>1398</v>
@@ -2830,16 +2839,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>58</v>
-      </c>
       <c r="D23" s="9">
         <v>1</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F23" s="9">
         <v>1860</v>
@@ -2856,16 +2865,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>60</v>
-      </c>
       <c r="D24" s="9">
         <v>1</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F24" s="9">
         <v>1750</v>
@@ -2882,14 +2891,14 @@
         <v>23</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9">
         <v>1</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F25" s="9">
         <v>60000</v>
@@ -2906,14 +2915,14 @@
         <v>24</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9">
         <v>1</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F26" s="9">
         <v>60000</v>
@@ -2930,14 +2939,14 @@
         <v>25</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9">
         <v>1</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F27" s="9">
         <v>120000</v>
@@ -2954,14 +2963,14 @@
         <v>26</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9">
         <v>1</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
@@ -2975,7 +2984,7 @@
       <c r="D29" s="11"/>
       <c r="E29" s="12"/>
       <c r="F29" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G29" s="13">
         <f>SUM(G3:G20)-G17</f>
@@ -2989,7 +2998,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>72</v>

--- a/1-零件清单/A型电机BOM（批量阶段）.xlsx
+++ b/1-零件清单/A型电机BOM（批量阶段）.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="74">
   <si>
     <t>A型电机批量生产BOM表（锐特）</t>
   </si>
@@ -50,7 +50,7 @@
     <t>风罩</t>
   </si>
   <si>
-    <t>PPA+30%GF</t>
+    <t>PPS+40%GF</t>
   </si>
   <si>
     <t>PCS</t>
@@ -110,15 +110,12 @@
     <t>PA66+30%GF</t>
   </si>
   <si>
-    <t>2g，材料+人工=30*2元/kg</t>
+    <t>发发</t>
   </si>
   <si>
     <t>下骨架</t>
   </si>
   <si>
-    <t>0.9g</t>
-  </si>
-  <si>
     <t>漆包线</t>
   </si>
   <si>
@@ -152,13 +149,13 @@
     <t>后端盖</t>
   </si>
   <si>
-    <t>PPS+30%GF</t>
-  </si>
-  <si>
     <t>接线端子</t>
   </si>
   <si>
-    <t>镀锡黄铜</t>
+    <t>镀锡磷青铜</t>
+  </si>
+  <si>
+    <t>温州相昱科技</t>
   </si>
   <si>
     <t>自攻螺丝</t>
@@ -274,6 +271,12 @@
     <t>A型电机批量生产BOM表（冉工参考）</t>
   </si>
   <si>
+    <t>PPA+30%GF</t>
+  </si>
+  <si>
+    <t>PPS+30%GF</t>
+  </si>
+  <si>
     <t>后盖</t>
   </si>
   <si>
@@ -347,8 +350,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -398,8 +401,15 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,30 +423,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -456,32 +468,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -505,20 +493,42 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -535,13 +545,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFFFF00"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -616,13 +619,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,19 +775,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,145 +799,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -905,17 +908,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -931,21 +934,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -983,6 +971,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1010,10 +1013,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1022,133 +1025,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1553,7 +1556,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.90833333333333" defaultRowHeight="13.5"/>
@@ -1833,9 +1836,16 @@
       <c r="E11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
+      <c r="F11" s="15">
+        <v>0.07</v>
+      </c>
+      <c r="G11" s="15">
+        <f>F11*D11</f>
+        <v>0.07</v>
+      </c>
+      <c r="H11" s="15">
+        <v>5000</v>
+      </c>
       <c r="I11" s="15" t="s">
         <v>31</v>
       </c>
@@ -1856,11 +1866,18 @@
       <c r="E12" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
+      <c r="F12" s="15">
+        <v>0.13</v>
+      </c>
+      <c r="G12" s="15">
+        <f>F12*D12</f>
+        <v>0.13</v>
+      </c>
+      <c r="H12" s="15">
+        <v>5500</v>
+      </c>
       <c r="I12" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:9">
@@ -1868,22 +1885,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>34</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>35</v>
       </c>
       <c r="D13" s="18">
         <v>15</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:9">
@@ -1891,10 +1908,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>38</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>39</v>
       </c>
       <c r="D14" s="16">
         <v>1</v>
@@ -1911,7 +1928,7 @@
       </c>
       <c r="H14" s="16"/>
       <c r="I14" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:9">
@@ -1919,10 +1936,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>41</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>42</v>
       </c>
       <c r="D15" s="16">
         <v>1</v>
@@ -1939,7 +1956,7 @@
       </c>
       <c r="H15" s="16"/>
       <c r="I15" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:9">
@@ -1947,10 +1964,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="D16" s="15">
         <v>1</v>
@@ -1970,10 +1987,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D17" s="18">
         <v>3</v>
@@ -1981,20 +1998,29 @@
       <c r="E17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
+      <c r="F17" s="18">
+        <v>0.165</v>
+      </c>
+      <c r="G17" s="18">
+        <f>F17*D17</f>
+        <v>0.495</v>
+      </c>
+      <c r="H17" s="18">
+        <v>0</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="18" ht="14.25" spans="1:9">
       <c r="A18" s="18">
         <v>16</v>
       </c>
       <c r="B18" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="18" t="s">
         <v>48</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>49</v>
       </c>
       <c r="D18" s="18">
         <v>3</v>
@@ -2006,7 +2032,7 @@
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
       <c r="I18" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:9">
@@ -2014,16 +2040,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="D19" s="19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="19" t="s">
         <v>52</v>
-      </c>
-      <c r="D19" s="19">
-        <v>1</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>53</v>
       </c>
       <c r="F19" s="19">
         <v>6799</v>
@@ -2040,16 +2066,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="19" t="s">
-        <v>55</v>
-      </c>
       <c r="D20" s="19">
         <v>1</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F20" s="19">
         <v>1398</v>
@@ -2066,16 +2092,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="19" t="s">
-        <v>57</v>
-      </c>
       <c r="D21" s="19">
         <v>1</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F21" s="19">
         <v>1860</v>
@@ -2092,16 +2118,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="19" t="s">
-        <v>59</v>
-      </c>
       <c r="D22" s="19">
         <v>1</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F22" s="19">
         <v>1750</v>
@@ -2118,14 +2144,14 @@
         <v>21</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="19">
         <v>1</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F23" s="19">
         <v>60000</v>
@@ -2142,14 +2168,14 @@
         <v>22</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="19">
         <v>1</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F24" s="19">
         <v>60000</v>
@@ -2166,14 +2192,14 @@
         <v>23</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="19">
         <v>1</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F25" s="19">
         <v>120000</v>
@@ -2190,14 +2216,14 @@
         <v>24</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="19">
         <v>1</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
@@ -2211,24 +2237,24 @@
       <c r="D27" s="21"/>
       <c r="E27" s="22"/>
       <c r="F27" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G27" s="23">
         <f>SUM(G3:G18)</f>
-        <v>12.94</v>
+        <v>13.635</v>
       </c>
       <c r="H27" s="23">
         <f>SUM(H3:H24)</f>
-        <v>203807</v>
+        <v>214307</v>
       </c>
       <c r="I27" s="23"/>
     </row>
     <row r="28" ht="14.25" spans="1:9">
       <c r="A28" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="25" t="s">
         <v>65</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>66</v>
       </c>
       <c r="C28" s="24"/>
       <c r="D28" s="24"/>
@@ -2271,7 +2297,7 @@
   <sheetData>
     <row r="1" ht="40" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2319,7 +2345,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
@@ -2451,7 +2477,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -2584,16 +2610,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="D13" s="6">
         <v>15</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13" s="6">
         <v>0.1</v>
@@ -2610,10 +2636,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -2636,10 +2662,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -2662,10 +2688,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
@@ -2690,7 +2716,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3">
@@ -2716,10 +2742,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D18" s="6">
         <v>3</v>
@@ -2744,7 +2770,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6">
@@ -2763,7 +2789,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6">
@@ -2787,16 +2813,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="D21" s="9">
+        <v>1</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="D21" s="9">
-        <v>1</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>53</v>
       </c>
       <c r="F21" s="9">
         <v>6799</v>
@@ -2813,16 +2839,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>55</v>
-      </c>
       <c r="D22" s="9">
         <v>1</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F22" s="9">
         <v>1398</v>
@@ -2839,16 +2865,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>57</v>
-      </c>
       <c r="D23" s="9">
         <v>1</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F23" s="9">
         <v>1860</v>
@@ -2865,16 +2891,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>59</v>
-      </c>
       <c r="D24" s="9">
         <v>1</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F24" s="9">
         <v>1750</v>
@@ -2891,14 +2917,14 @@
         <v>23</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9">
         <v>1</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F25" s="9">
         <v>60000</v>
@@ -2915,14 +2941,14 @@
         <v>24</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9">
         <v>1</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F26" s="9">
         <v>60000</v>
@@ -2939,14 +2965,14 @@
         <v>25</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9">
         <v>1</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F27" s="9">
         <v>120000</v>
@@ -2963,14 +2989,14 @@
         <v>26</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9">
         <v>1</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
@@ -2984,7 +3010,7 @@
       <c r="D29" s="11"/>
       <c r="E29" s="12"/>
       <c r="F29" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G29" s="13">
         <f>SUM(G3:G20)-G17</f>
@@ -2998,10 +3024,10 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/1-零件清单/A型电机BOM（批量阶段）.xlsx
+++ b/1-零件清单/A型电机BOM（批量阶段）.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="82">
   <si>
     <t>A型电机批量生产BOM表（锐特）</t>
   </si>
@@ -56,7 +56,7 @@
     <t>PCS</t>
   </si>
   <si>
-    <t>开模注塑</t>
+    <t>10g</t>
   </si>
   <si>
     <t>叶轮</t>
@@ -68,7 +68,7 @@
     <t>六角螺母</t>
   </si>
   <si>
-    <t>铝</t>
+    <t>铝6061</t>
   </si>
   <si>
     <t>M3，厚度4</t>
@@ -80,13 +80,16 @@
     <t>T型垫片</t>
   </si>
   <si>
-    <t>3mm高，数控车床</t>
+    <t>波形垫片</t>
+  </si>
+  <si>
+    <t>铍青铜</t>
   </si>
   <si>
     <t>前端盖</t>
   </si>
   <si>
-    <t>12g</t>
+    <t>17g</t>
   </si>
   <si>
     <t>轴承</t>
@@ -149,13 +152,16 @@
     <t>后端盖</t>
   </si>
   <si>
+    <t>5.5g</t>
+  </si>
+  <si>
     <t>接线端子</t>
   </si>
   <si>
     <t>镀锡磷青铜</t>
   </si>
   <si>
-    <t>温州相昱科技</t>
+    <t>温州相昱科技（含税）</t>
   </si>
   <si>
     <t>自攻螺丝</t>
@@ -167,6 +173,9 @@
     <t>M3*20</t>
   </si>
   <si>
+    <t>密封垫圈</t>
+  </si>
+  <si>
     <t>泰克示波器</t>
   </si>
   <si>
@@ -194,13 +203,22 @@
     <t>8路/热电偶</t>
   </si>
   <si>
-    <t>叶轮动平衡机</t>
-  </si>
-  <si>
     <t>整机动平衡机</t>
   </si>
   <si>
+    <t>苏州赛德克</t>
+  </si>
+  <si>
     <t>4工位自动绕线机</t>
+  </si>
+  <si>
+    <t>深圳专诚达</t>
+  </si>
+  <si>
+    <t>自动甩胶机</t>
+  </si>
+  <si>
+    <t>嵊州三科</t>
   </si>
   <si>
     <t>自动点胶机</t>
@@ -274,6 +292,9 @@
     <t>PPA+30%GF</t>
   </si>
   <si>
+    <t>铝</t>
+  </si>
+  <si>
     <t>PPS+30%GF</t>
   </si>
   <si>
@@ -287,6 +308,9 @@
   </si>
   <si>
     <t>包装</t>
+  </si>
+  <si>
+    <t>叶轮动平衡机</t>
   </si>
   <si>
     <r>
@@ -350,9 +374,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
@@ -400,6 +424,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -409,23 +491,72 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -438,121 +569,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFF00"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFF00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -619,187 +643,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -908,6 +932,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -941,17 +985,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -971,36 +1021,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1013,10 +1037,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1025,133 +1049,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1553,10 +1577,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.90833333333333" defaultRowHeight="13.5"/>
@@ -1628,8 +1652,13 @@
       <c r="E3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="F3" s="15">
+        <v>1.15</v>
+      </c>
+      <c r="G3" s="15">
+        <f t="shared" ref="G3:G10" si="0">F3*D3</f>
+        <v>1.15</v>
+      </c>
       <c r="H3" s="15"/>
       <c r="I3" s="15" t="s">
         <v>13</v>
@@ -1653,7 +1682,7 @@
         <v>2.4</v>
       </c>
       <c r="G4" s="16">
-        <f>F4*D4</f>
+        <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
       <c r="H4" s="16">
@@ -1683,10 +1712,12 @@
         <v>0.08</v>
       </c>
       <c r="G5" s="18">
-        <f>F5*D5</f>
+        <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
-      <c r="H5" s="18"/>
+      <c r="H5" s="18">
+        <v>0</v>
+      </c>
       <c r="I5" s="18" t="s">
         <v>18</v>
       </c>
@@ -1707,10 +1738,15 @@
       <c r="E6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
+      <c r="F6" s="18">
+        <v>0.06</v>
+      </c>
+      <c r="G6" s="18">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
       <c r="H6" s="18">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I6" s="18"/>
     </row>
@@ -1734,67 +1770,68 @@
         <v>0.26</v>
       </c>
       <c r="G7" s="18">
-        <f>F7*D7</f>
+        <f t="shared" si="0"/>
         <v>0.26</v>
       </c>
       <c r="H7" s="18">
         <v>0</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="18"/>
+    </row>
+    <row r="8" ht="14.25" spans="1:9">
+      <c r="A8" s="18">
+        <v>6</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" ht="14.25" spans="1:9">
-      <c r="A8" s="15">
-        <v>6</v>
-      </c>
-      <c r="B8" s="15" t="s">
+      <c r="C8" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="D8" s="18">
+        <v>1</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="18">
+        <v>0.08</v>
+      </c>
+      <c r="G8" s="18">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+      <c r="H8" s="18">
+        <v>0</v>
+      </c>
+      <c r="I8" s="18"/>
+    </row>
+    <row r="9" ht="14.25" spans="1:9">
+      <c r="A9" s="15">
+        <v>7</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="15">
-        <v>1</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" spans="1:9">
-      <c r="A9" s="16">
-        <v>7</v>
-      </c>
-      <c r="B9" s="16" t="s">
+      <c r="D9" s="15">
+        <v>1</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="15">
+        <v>1.85</v>
+      </c>
+      <c r="G9" s="15">
+        <f t="shared" si="0"/>
+        <v>1.85</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="16">
-        <v>2</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="16">
-        <v>3</v>
-      </c>
-      <c r="G9" s="16">
-        <f>F9*D9</f>
-        <v>6</v>
-      </c>
-      <c r="H9" s="16">
-        <v>0</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:9">
@@ -1802,63 +1839,63 @@
         <v>8</v>
       </c>
       <c r="B10" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="16">
+        <v>2</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="16">
+        <v>3</v>
+      </c>
+      <c r="G10" s="16">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H10" s="16">
+        <v>0</v>
+      </c>
+      <c r="I10" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="16" t="s">
+    </row>
+    <row r="11" ht="14.25" spans="1:9">
+      <c r="A11" s="16">
+        <v>9</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="16">
-        <v>1</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16">
+      <c r="C11" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="16">
+        <v>1</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16">
         <v>70000</v>
       </c>
-      <c r="I10" s="16"/>
-    </row>
-    <row r="11" ht="14.25" spans="1:9">
-      <c r="A11" s="15">
-        <v>9</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="15">
-        <v>1</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="15">
-        <v>0.07</v>
-      </c>
-      <c r="G11" s="15">
-        <f>F11*D11</f>
-        <v>0.07</v>
-      </c>
-      <c r="H11" s="15">
-        <v>5000</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="I11" s="16"/>
     </row>
     <row r="12" ht="14.25" spans="1:9">
       <c r="A12" s="15">
         <v>10</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" s="15">
         <v>1</v>
@@ -1867,68 +1904,72 @@
         <v>12</v>
       </c>
       <c r="F12" s="15">
-        <v>0.13</v>
+        <v>0.07</v>
       </c>
       <c r="G12" s="15">
         <f>F12*D12</f>
+        <v>0.07</v>
+      </c>
+      <c r="H12" s="15">
+        <v>5000</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" spans="1:9">
+      <c r="A13" s="15">
+        <v>11</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="15">
+        <v>1</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="15">
         <v>0.13</v>
       </c>
-      <c r="H12" s="15">
+      <c r="G13" s="15">
+        <f>F13*D13</f>
+        <v>0.13</v>
+      </c>
+      <c r="H13" s="15">
         <v>5500</v>
       </c>
-      <c r="I12" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" spans="1:9">
-      <c r="A13" s="18">
-        <v>11</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="18" t="s">
+      <c r="I13" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:9">
+      <c r="A14" s="18">
+        <v>12</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="18">
+      <c r="C14" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="18">
         <v>15</v>
       </c>
-      <c r="E13" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18" t="s">
+      <c r="E14" s="18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" ht="14.25" spans="1:9">
-      <c r="A14" s="16">
-        <v>12</v>
-      </c>
-      <c r="B14" s="16" t="s">
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18">
+        <v>0</v>
+      </c>
+      <c r="I14" s="18" t="s">
         <v>37</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="16">
-        <v>1</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="16">
-        <v>2.2</v>
-      </c>
-      <c r="G14" s="16">
-        <f>F14*D14</f>
-        <v>2.2</v>
-      </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:9">
@@ -1936,10 +1977,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D15" s="16">
         <v>1</v>
@@ -1948,68 +1989,75 @@
         <v>12</v>
       </c>
       <c r="F15" s="16">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="G15" s="16">
         <f>F15*D15</f>
+        <v>2.2</v>
+      </c>
+      <c r="H15" s="16">
+        <v>0</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="1:9">
+      <c r="A16" s="16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="16">
         <v>2</v>
       </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" spans="1:9">
-      <c r="A16" s="15">
-        <v>14</v>
-      </c>
-      <c r="B16" s="15" t="s">
+      <c r="G16" s="16">
+        <f>F16*D16</f>
+        <v>2</v>
+      </c>
+      <c r="H16" s="16">
+        <v>0</v>
+      </c>
+      <c r="I16" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="15" t="s">
+    </row>
+    <row r="17" ht="14.25" spans="1:9">
+      <c r="A17" s="15">
+        <v>15</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="15">
-        <v>1</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" spans="1:9">
-      <c r="A17" s="18">
-        <v>15</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="18" t="s">
+      <c r="D17" s="15">
+        <v>1</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="G17" s="15">
+        <f>F17*D17</f>
+        <v>0.7</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15" t="s">
         <v>45</v>
-      </c>
-      <c r="D17" s="18">
-        <v>3</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="18">
-        <v>0.165</v>
-      </c>
-      <c r="G17" s="18">
-        <f>F17*D17</f>
-        <v>0.495</v>
-      </c>
-      <c r="H17" s="18">
-        <v>0</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:9">
@@ -2017,10 +2065,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="18" t="s">
         <v>47</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>48</v>
       </c>
       <c r="D18" s="18">
         <v>3</v>
@@ -2028,88 +2076,89 @@
       <c r="E18" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
+      <c r="F18" s="18">
+        <v>0.165</v>
+      </c>
+      <c r="G18" s="18">
+        <f>F18*D18</f>
+        <v>0.495</v>
+      </c>
+      <c r="H18" s="18">
+        <v>0</v>
+      </c>
       <c r="I18" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" spans="1:9">
+      <c r="A19" s="18">
+        <v>17</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="19" ht="14.25" spans="1:9">
-      <c r="A19" s="19">
-        <v>17</v>
-      </c>
-      <c r="B19" s="19" t="s">
+      <c r="C19" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="D19" s="18">
+        <v>3</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18">
+        <v>0</v>
+      </c>
+      <c r="I19" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="19">
-        <v>1</v>
-      </c>
-      <c r="E19" s="19" t="s">
+    </row>
+    <row r="20" ht="14.25" spans="1:9">
+      <c r="A20" s="18">
+        <v>18</v>
+      </c>
+      <c r="B20" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="19">
-        <v>6799</v>
-      </c>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19">
-        <f t="shared" ref="H19:H25" si="0">D19*F19</f>
-        <v>6799</v>
-      </c>
-      <c r="I19" s="19"/>
-    </row>
-    <row r="20" ht="14.25" spans="1:9">
-      <c r="A20" s="19">
-        <v>18</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="19">
-        <v>1</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="19">
-        <v>1398</v>
-      </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19">
-        <f t="shared" si="0"/>
-        <v>1398</v>
-      </c>
-      <c r="I20" s="19"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18">
+        <v>1</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18">
+        <v>0</v>
+      </c>
+      <c r="I20" s="18"/>
     </row>
     <row r="21" ht="14.25" spans="1:9">
       <c r="A21" s="19">
         <v>19</v>
       </c>
       <c r="B21" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="19">
+        <v>1</v>
+      </c>
+      <c r="E21" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="19">
-        <v>1</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>52</v>
-      </c>
       <c r="F21" s="19">
-        <v>1860</v>
+        <v>6799</v>
       </c>
       <c r="G21" s="19"/>
       <c r="H21" s="19">
-        <f t="shared" si="0"/>
-        <v>1860</v>
+        <f>D21*F21</f>
+        <v>6799</v>
       </c>
       <c r="I21" s="19"/>
     </row>
@@ -2118,24 +2167,24 @@
         <v>20</v>
       </c>
       <c r="B22" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="19" t="s">
-        <v>58</v>
-      </c>
       <c r="D22" s="19">
         <v>1</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F22" s="19">
-        <v>1750</v>
+        <v>1398</v>
       </c>
       <c r="G22" s="19"/>
       <c r="H22" s="19">
-        <f t="shared" si="0"/>
-        <v>1750</v>
+        <f>D22*F22</f>
+        <v>1398</v>
       </c>
       <c r="I22" s="19"/>
     </row>
@@ -2144,22 +2193,24 @@
         <v>21</v>
       </c>
       <c r="B23" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="19"/>
       <c r="D23" s="19">
         <v>1</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F23" s="19">
-        <v>60000</v>
+        <v>1860</v>
       </c>
       <c r="G23" s="19"/>
       <c r="H23" s="19">
-        <f t="shared" si="0"/>
-        <v>60000</v>
+        <f>D23*F23</f>
+        <v>1860</v>
       </c>
       <c r="I23" s="19"/>
     </row>
@@ -2170,20 +2221,22 @@
       <c r="B24" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="19"/>
+      <c r="C24" s="19" t="s">
+        <v>61</v>
+      </c>
       <c r="D24" s="19">
         <v>1</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F24" s="19">
-        <v>60000</v>
+        <v>1750</v>
       </c>
       <c r="G24" s="19"/>
       <c r="H24" s="19">
-        <f t="shared" si="0"/>
-        <v>60000</v>
+        <f>D24*F24</f>
+        <v>1750</v>
       </c>
       <c r="I24" s="19"/>
     </row>
@@ -2192,83 +2245,143 @@
         <v>23</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="19">
         <v>1</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F25" s="19">
-        <v>120000</v>
+        <v>75000</v>
       </c>
       <c r="G25" s="19"/>
       <c r="H25" s="19">
-        <f t="shared" si="0"/>
-        <v>120000</v>
-      </c>
-      <c r="I25" s="19"/>
+        <f>D25*F25</f>
+        <v>75000</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="26" ht="14.25" spans="1:9">
       <c r="A26" s="19">
         <v>24</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="19">
         <v>1</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="F26" s="19"/>
+        <v>55</v>
+      </c>
+      <c r="F26" s="19">
+        <v>170000</v>
+      </c>
       <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
+      <c r="H26" s="19">
+        <f>D26*F26</f>
+        <v>170000</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="27" ht="14.25" spans="1:9">
-      <c r="A27" s="20"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="23">
-        <f>SUM(G3:G18)</f>
-        <v>13.635</v>
-      </c>
-      <c r="H27" s="23">
-        <f>SUM(H3:H24)</f>
-        <v>214307</v>
-      </c>
-      <c r="I27" s="23"/>
+      <c r="A27" s="19">
+        <v>25</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19">
+        <v>1</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="19">
+        <v>15000</v>
+      </c>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19">
+        <f>D27*F27</f>
+        <v>15000</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="28" ht="14.25" spans="1:9">
-      <c r="A28" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
+      <c r="A28" s="19">
+        <v>26</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19">
+        <v>1</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="19">
+        <v>25000</v>
+      </c>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19">
+        <f>D28*F28</f>
+        <v>25000</v>
+      </c>
+      <c r="I28" s="19"/>
+    </row>
+    <row r="29" ht="14.25" spans="1:9">
+      <c r="A29" s="20"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" s="23">
+        <f>SUM(G3:G19)</f>
+        <v>17.475</v>
+      </c>
+      <c r="H29" s="23">
+        <f>SUM(H3:H28)</f>
+        <v>377307</v>
+      </c>
+      <c r="I29" s="23"/>
+    </row>
+    <row r="30" ht="14.25" spans="1:9">
+      <c r="A30" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="I27:I28"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2297,7 +2410,7 @@
   <sheetData>
     <row r="1" ht="40" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2345,7 +2458,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
@@ -2399,7 +2512,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="D5" s="6">
         <v>1</v>
@@ -2425,7 +2538,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="D6" s="6">
         <v>1</v>
@@ -2451,7 +2564,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="D7" s="6">
         <v>1</v>
@@ -2474,10 +2587,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -2502,10 +2615,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
@@ -2528,10 +2641,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -2556,10 +2669,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
@@ -2584,10 +2697,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
@@ -2610,16 +2723,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="6">
         <v>15</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F13" s="6">
         <v>0.1</v>
@@ -2636,10 +2749,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -2662,10 +2775,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -2688,10 +2801,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
@@ -2716,7 +2829,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3">
@@ -2742,10 +2855,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D18" s="6">
         <v>3</v>
@@ -2770,7 +2883,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6">
@@ -2789,7 +2902,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6">
@@ -2813,16 +2926,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D21" s="9">
         <v>1</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F21" s="9">
         <v>6799</v>
@@ -2839,16 +2952,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D22" s="9">
         <v>1</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F22" s="9">
         <v>1398</v>
@@ -2865,16 +2978,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="9">
+        <v>1</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="9">
-        <v>1</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>52</v>
       </c>
       <c r="F23" s="9">
         <v>1860</v>
@@ -2891,16 +3004,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D24" s="9">
         <v>1</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F24" s="9">
         <v>1750</v>
@@ -2917,14 +3030,14 @@
         <v>23</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9">
         <v>1</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F25" s="9">
         <v>60000</v>
@@ -2941,14 +3054,14 @@
         <v>24</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9">
         <v>1</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F26" s="9">
         <v>60000</v>
@@ -2965,14 +3078,14 @@
         <v>25</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9">
         <v>1</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F27" s="9">
         <v>120000</v>
@@ -2989,14 +3102,14 @@
         <v>26</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9">
         <v>1</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
@@ -3010,7 +3123,7 @@
       <c r="D29" s="11"/>
       <c r="E29" s="12"/>
       <c r="F29" s="13" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G29" s="13">
         <f>SUM(G3:G20)-G17</f>
@@ -3024,10 +3137,10 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/1-零件清单/A型电机BOM（批量阶段）.xlsx
+++ b/1-零件清单/A型电机BOM（批量阶段）.xlsx
@@ -374,9 +374,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
@@ -425,7 +425,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -446,8 +505,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -462,113 +569,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFFFF00"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -643,187 +643,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -932,26 +932,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -963,6 +943,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -991,6 +986,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1006,25 +1019,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1037,10 +1037,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1049,133 +1049,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1580,7 +1580,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.90833333333333" defaultRowHeight="13.5"/>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="G21" s="19"/>
       <c r="H21" s="19">
-        <f>D21*F21</f>
+        <f t="shared" ref="H21:H28" si="1">D21*F21</f>
         <v>6799</v>
       </c>
       <c r="I21" s="19"/>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="G22" s="19"/>
       <c r="H22" s="19">
-        <f>D22*F22</f>
+        <f t="shared" si="1"/>
         <v>1398</v>
       </c>
       <c r="I22" s="19"/>
@@ -2209,7 +2209,7 @@
       </c>
       <c r="G23" s="19"/>
       <c r="H23" s="19">
-        <f>D23*F23</f>
+        <f t="shared" si="1"/>
         <v>1860</v>
       </c>
       <c r="I23" s="19"/>
@@ -2235,7 +2235,7 @@
       </c>
       <c r="G24" s="19"/>
       <c r="H24" s="19">
-        <f>D24*F24</f>
+        <f t="shared" si="1"/>
         <v>1750</v>
       </c>
       <c r="I24" s="19"/>
@@ -2255,12 +2255,12 @@
         <v>55</v>
       </c>
       <c r="F25" s="19">
-        <v>75000</v>
+        <v>185000</v>
       </c>
       <c r="G25" s="19"/>
       <c r="H25" s="19">
-        <f>D25*F25</f>
-        <v>75000</v>
+        <f t="shared" si="1"/>
+        <v>185000</v>
       </c>
       <c r="I25" s="19" t="s">
         <v>63</v>
@@ -2285,7 +2285,7 @@
       </c>
       <c r="G26" s="19"/>
       <c r="H26" s="19">
-        <f>D26*F26</f>
+        <f t="shared" si="1"/>
         <v>170000</v>
       </c>
       <c r="I26" s="19" t="s">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="G27" s="19"/>
       <c r="H27" s="19">
-        <f>D27*F27</f>
+        <f t="shared" si="1"/>
         <v>15000</v>
       </c>
       <c r="I27" s="19" t="s">
@@ -2337,7 +2337,7 @@
       </c>
       <c r="G28" s="19"/>
       <c r="H28" s="19">
-        <f>D28*F28</f>
+        <f t="shared" si="1"/>
         <v>25000</v>
       </c>
       <c r="I28" s="19"/>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="H29" s="23">
         <f>SUM(H3:H28)</f>
-        <v>377307</v>
+        <v>487307</v>
       </c>
       <c r="I29" s="23"/>
     </row>

--- a/1-零件清单/A型电机BOM（批量阶段）.xlsx
+++ b/1-零件清单/A型电机BOM（批量阶段）.xlsx
@@ -167,7 +167,7 @@
     <t>自攻螺丝</t>
   </si>
   <si>
-    <t>SUS304</t>
+    <t>镀锌</t>
   </si>
   <si>
     <t>M3*20</t>
@@ -374,8 +374,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -425,12 +425,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -439,16 +462,64 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -460,83 +531,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -545,13 +539,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -560,23 +547,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFF00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -643,187 +643,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -932,6 +932,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -943,21 +954,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -980,15 +976,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -1000,6 +987,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1021,11 +1023,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1037,28 +1037,28 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1070,10 +1070,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1082,100 +1085,97 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1580,7 +1580,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.90833333333333" defaultRowHeight="13.5"/>
